--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value285.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value285.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.14571507657919</v>
+        <v>1.099699974060059</v>
       </c>
       <c r="B1">
-        <v>2.089066932723805</v>
+        <v>1.275647401809692</v>
       </c>
       <c r="C1">
-        <v>2.232145156456742</v>
+        <v>1.618452787399292</v>
       </c>
       <c r="D1">
-        <v>2.573047824184263</v>
+        <v>3.185163736343384</v>
       </c>
       <c r="E1">
-        <v>0.8738965850194589</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
